--- a/results.xlsx
+++ b/results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26708"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FUM\Semantic web\Project1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EC02B1-DB10-411E-9484-A54F8A14D437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -715,8 +721,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,13 +785,1836 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Dispersion of amenity  categories in the city of Mashhad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$224:$J$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EAE-4914-AE6D-6E9823E1C375}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="470644831"/>
+        <c:axId val="472075151"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="470644831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472075151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472075151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470644831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Dispersion of amenity  categories in the city of Mashhad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>public transport</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cycling infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sidewalks</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>residential</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>public safety</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>commercial</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>educational</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>recreational</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>healthcare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$224:$J$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A956-4B94-B15B-3E25B6462D5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480916191"/>
+        <c:axId val="502068287"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="480916191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502068287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="502068287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480916191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162036</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>139964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>450750</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>46629</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C054B18-AA31-C9D3-F711-8D8346872977}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>286380</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>85563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248689</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>155431</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AEF527-37D3-6074-0255-69643ED0A020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -823,7 +2652,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -857,6 +2686,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -891,9 +2721,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1066,14 +2897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="B224:J224 B1:J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,7 +2973,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +3008,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +3043,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +3078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +3113,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +3148,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +3183,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +3218,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +3253,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +3288,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1490,7 +3323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +3358,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +3393,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1595,7 +3428,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1630,7 +3463,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +3498,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +3533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +3568,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +3603,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +3638,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1840,7 +3673,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1875,7 +3708,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +3743,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1945,7 +3778,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +3813,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +3848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +3883,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -2085,7 +3918,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -2120,7 +3953,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +3988,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2190,7 +4023,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +4058,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2260,7 +4093,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2295,7 +4128,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,7 +4163,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2365,7 +4198,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2400,7 +4233,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2435,7 +4268,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,7 +4303,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2505,7 +4338,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2540,7 +4373,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2575,7 +4408,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2610,7 +4443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2645,7 +4478,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2680,7 +4513,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2715,7 +4548,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +4583,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2785,7 +4618,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2820,7 +4653,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2855,7 +4688,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2890,7 +4723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2925,7 +4758,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -2960,7 +4793,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>63</v>
       </c>
@@ -2995,7 +4828,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
@@ -3030,7 +4863,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
@@ -3065,7 +4898,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
@@ -3100,7 +4933,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -3135,7 +4968,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -3170,7 +5003,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -3205,7 +5038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -3240,7 +5073,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -3275,7 +5108,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -3310,7 +5143,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3345,7 +5178,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3380,7 +5213,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3415,7 +5248,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -3450,7 +5283,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>77</v>
       </c>
@@ -3485,7 +5318,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -3520,7 +5353,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -3555,7 +5388,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +5423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
@@ -3625,7 +5458,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
@@ -3660,7 +5493,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>83</v>
       </c>
@@ -3695,7 +5528,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -3730,7 +5563,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>85</v>
       </c>
@@ -3765,7 +5598,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>86</v>
       </c>
@@ -3800,7 +5633,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>87</v>
       </c>
@@ -3835,7 +5668,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>88</v>
       </c>
@@ -3870,7 +5703,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>89</v>
       </c>
@@ -3905,7 +5738,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>90</v>
       </c>
@@ -3940,7 +5773,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>91</v>
       </c>
@@ -3975,7 +5808,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -4010,7 +5843,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>93</v>
       </c>
@@ -4045,7 +5878,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
@@ -4080,7 +5913,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>95</v>
       </c>
@@ -4115,7 +5948,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>96</v>
       </c>
@@ -4150,7 +5983,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>97</v>
       </c>
@@ -4185,7 +6018,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -4220,7 +6053,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
@@ -4255,7 +6088,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
@@ -4290,7 +6123,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>101</v>
       </c>
@@ -4325,7 +6158,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -4360,7 +6193,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -4395,7 +6228,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>104</v>
       </c>
@@ -4430,7 +6263,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>105</v>
       </c>
@@ -4465,7 +6298,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>106</v>
       </c>
@@ -4500,7 +6333,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>107</v>
       </c>
@@ -4535,7 +6368,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>108</v>
       </c>
@@ -4570,7 +6403,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>109</v>
       </c>
@@ -4605,7 +6438,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>110</v>
       </c>
@@ -4640,7 +6473,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>111</v>
       </c>
@@ -4675,7 +6508,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>112</v>
       </c>
@@ -4710,7 +6543,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>113</v>
       </c>
@@ -4745,7 +6578,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
@@ -4780,7 +6613,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -4815,7 +6648,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -4850,7 +6683,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -4885,7 +6718,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>118</v>
       </c>
@@ -4920,7 +6753,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -4955,7 +6788,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -4990,7 +6823,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>121</v>
       </c>
@@ -5025,7 +6858,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>122</v>
       </c>
@@ -5060,7 +6893,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>123</v>
       </c>
@@ -5095,7 +6928,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>124</v>
       </c>
@@ -5130,7 +6963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
@@ -5165,7 +6998,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>126</v>
       </c>
@@ -5200,7 +7033,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -5235,7 +7068,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
@@ -5270,7 +7103,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
@@ -5305,7 +7138,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>130</v>
       </c>
@@ -5340,7 +7173,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
@@ -5375,7 +7208,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
@@ -5410,7 +7243,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -5445,7 +7278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
@@ -5480,7 +7313,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
@@ -5515,7 +7348,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
@@ -5550,7 +7383,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
@@ -5585,7 +7418,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
@@ -5620,7 +7453,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
@@ -5655,7 +7488,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
@@ -5690,7 +7523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
@@ -5725,7 +7558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
@@ -5760,7 +7593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
@@ -5795,7 +7628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
@@ -5830,7 +7663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>145</v>
       </c>
@@ -5865,7 +7698,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>146</v>
       </c>
@@ -5900,7 +7733,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
@@ -5935,7 +7768,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>148</v>
       </c>
@@ -5970,7 +7803,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
@@ -6005,7 +7838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
@@ -6040,7 +7873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>151</v>
       </c>
@@ -6075,7 +7908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>152</v>
       </c>
@@ -6110,7 +7943,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>153</v>
       </c>
@@ -6145,7 +7978,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>154</v>
       </c>
@@ -6180,7 +8013,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>155</v>
       </c>
@@ -6215,7 +8048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>156</v>
       </c>
@@ -6250,7 +8083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>157</v>
       </c>
@@ -6285,7 +8118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>158</v>
       </c>
@@ -6320,7 +8153,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>159</v>
       </c>
@@ -6355,7 +8188,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>160</v>
       </c>
@@ -6390,7 +8223,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
@@ -6425,7 +8258,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>162</v>
       </c>
@@ -6460,7 +8293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>163</v>
       </c>
@@ -6495,7 +8328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>164</v>
       </c>
@@ -6530,7 +8363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>165</v>
       </c>
@@ -6565,7 +8398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>166</v>
       </c>
@@ -6600,7 +8433,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -6635,7 +8468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>168</v>
       </c>
@@ -6670,7 +8503,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>169</v>
       </c>
@@ -6705,7 +8538,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>170</v>
       </c>
@@ -6740,7 +8573,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>171</v>
       </c>
@@ -6775,7 +8608,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>172</v>
       </c>
@@ -6810,7 +8643,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>173</v>
       </c>
@@ -6845,7 +8678,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>174</v>
       </c>
@@ -6880,7 +8713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>175</v>
       </c>
@@ -6915,7 +8748,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>176</v>
       </c>
@@ -6950,7 +8783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>177</v>
       </c>
@@ -6985,7 +8818,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>178</v>
       </c>
@@ -7020,7 +8853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>179</v>
       </c>
@@ -7055,7 +8888,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>180</v>
       </c>
@@ -7090,7 +8923,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>181</v>
       </c>
@@ -7125,7 +8958,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>182</v>
       </c>
@@ -7160,7 +8993,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>183</v>
       </c>
@@ -7195,7 +9028,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>184</v>
       </c>
@@ -7230,7 +9063,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>185</v>
       </c>
@@ -7265,7 +9098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>186</v>
       </c>
@@ -7300,7 +9133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>187</v>
       </c>
@@ -7335,7 +9168,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>188</v>
       </c>
@@ -7370,7 +9203,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>189</v>
       </c>
@@ -7405,7 +9238,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>190</v>
       </c>
@@ -7440,7 +9273,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>191</v>
       </c>
@@ -7475,7 +9308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>192</v>
       </c>
@@ -7510,7 +9343,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>193</v>
       </c>
@@ -7545,7 +9378,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>194</v>
       </c>
@@ -7580,7 +9413,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>195</v>
       </c>
@@ -7615,7 +9448,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>196</v>
       </c>
@@ -7650,7 +9483,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>197</v>
       </c>
@@ -7685,7 +9518,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>198</v>
       </c>
@@ -7720,7 +9553,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>199</v>
       </c>
@@ -7755,7 +9588,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>200</v>
       </c>
@@ -7790,7 +9623,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>201</v>
       </c>
@@ -7825,7 +9658,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>202</v>
       </c>
@@ -7860,7 +9693,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>203</v>
       </c>
@@ -7895,7 +9728,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>204</v>
       </c>
@@ -7930,7 +9763,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>205</v>
       </c>
@@ -7965,7 +9798,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>206</v>
       </c>
@@ -8000,7 +9833,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>207</v>
       </c>
@@ -8035,7 +9868,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>208</v>
       </c>
@@ -8070,7 +9903,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>209</v>
       </c>
@@ -8105,7 +9938,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>210</v>
       </c>
@@ -8140,7 +9973,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>211</v>
       </c>
@@ -8175,7 +10008,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>212</v>
       </c>
@@ -8210,7 +10043,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>213</v>
       </c>
@@ -8245,7 +10078,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>214</v>
       </c>
@@ -8280,7 +10113,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>215</v>
       </c>
@@ -8315,7 +10148,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>216</v>
       </c>
@@ -8350,7 +10183,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>217</v>
       </c>
@@ -8385,7 +10218,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>218</v>
       </c>
@@ -8420,7 +10253,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>219</v>
       </c>
@@ -8455,7 +10288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>220</v>
       </c>
@@ -8490,7 +10323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>221</v>
       </c>
@@ -8525,7 +10358,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>222</v>
       </c>
@@ -8560,7 +10393,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>223</v>
       </c>
@@ -8595,7 +10428,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>224</v>
       </c>
@@ -8630,7 +10463,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -8665,7 +10498,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>226</v>
       </c>
@@ -8700,7 +10533,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>227</v>
       </c>
@@ -8735,7 +10568,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>228</v>
       </c>
@@ -8770,7 +10603,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>229</v>
       </c>
@@ -8805,7 +10638,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>230</v>
       </c>
@@ -8840,7 +10673,7 @@
         <v>88.89</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>231</v>
       </c>
@@ -8875,7 +10708,7 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>9</v>
       </c>
@@ -8907,10 +10740,11 @@
         <v>78.83</v>
       </c>
       <c r="K224">
-        <v>75.22653153153153</v>
+        <v>75.226531531531535</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>